--- a/Lab1.3/Tables.xlsx
+++ b/Lab1.3/Tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Môn học năm 4\Requirement analysis\Lab1\Lab1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Môn học năm 4\Requirement analysis\SE357-Pratice-class\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD480521-6E8A-4013-A6C3-DB1EC9EF8558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5DAE8C-3A7E-49F0-8E27-641A6C5B6326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E8E7CE82-6139-4640-AD13-F8DAB8984EEC}"/>
   </bookViews>
@@ -38,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -68,46 +65,37 @@
   </si>
   <si>
     <t>Stakeholder Source</t>
-  </si>
-  <si>
-    <t>WK, P</t>
-  </si>
-  <si>
-    <t>A, P</t>
   </si>
   <si>
     <t>Rank
 (1 - 5)</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>C, WK</t>
-  </si>
-  <si>
-    <t>WK</t>
-  </si>
-  <si>
-    <t>G, A</t>
-  </si>
-  <si>
-    <t>G, R</t>
-  </si>
-  <si>
-    <t>A, G</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Standard #3</t>
   </si>
   <si>
-    <t>G, H</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>C, P</t>
+  </si>
+  <si>
+    <t>C, A</t>
+  </si>
+  <si>
+    <t>C, A, RS, P</t>
+  </si>
+  <si>
+    <t>A, RS, SD</t>
+  </si>
+  <si>
+    <t>A, C, P</t>
+  </si>
+  <si>
+    <t>C, RS, A</t>
+  </si>
+  <si>
+    <t>C, A, IT, SD</t>
   </si>
 </sst>
 </file>
@@ -123,18 +111,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -172,14 +154,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,68 +477,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECE304E-A177-4072-8B5F-8C0DFC6A0BC3}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.77734375" style="3" customWidth="1"/>
+    <col min="3" max="12" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2">
-        <v>2.2000000000000002</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2">
-        <v>2.2999999999999998</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2">
-        <v>2.5</v>
+        <v>8.1</v>
       </c>
       <c r="J1" s="2">
-        <v>3.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K1" s="2">
-        <v>3.2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L1" s="2">
-        <v>3.3</v>
+        <v>9.1</v>
       </c>
       <c r="M1" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N1" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O1" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="P1" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -567,14 +557,18 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -583,18 +577,28 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -603,152 +607,192 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>8.1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="I10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+        <v>9.1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -757,15 +801,19 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -775,59 +823,93 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -841,9 +923,8 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -857,9 +938,8 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -873,9 +953,8 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -889,9 +968,8 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -905,23 +983,6 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -930,10 +991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26F8C11-9A36-443C-81FB-DF58B6855388}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,86 +1009,241 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1037,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A4843D-3B7D-4D51-9C3E-71F32FA62B65}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,145 +1267,178 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>2.2000000000000002</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>2.2999999999999998</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>2.5</v>
+        <v>8.1</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>3.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>3.2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>3.3</v>
+        <v>9.1</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>4.0999999999999996</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
